--- a/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ/2025-12/XLSX/ΕΝΗΜΕΡΩΤΙΚΟ_ΣΗΜΕΙΩΜΑ_ΥΔΡΟΕΝΕΡΓΕΙΑ_ΑΙΓΙΟΥ_ΜΟΝΟΠΡΟΣΩΠΗ_Ι.Κ.Ε_2025-12.xlsx
+++ b/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ/2025-12/XLSX/ΕΝΗΜΕΡΩΤΙΚΟ_ΣΗΜΕΙΩΜΑ_ΥΔΡΟΕΝΕΡΓΕΙΑ_ΑΙΓΙΟΥ_ΜΟΝΟΠΡΟΣΩΠΗ_Ι.Κ.Ε_2025-12.xlsx
@@ -2794,8 +2794,8 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>ΓΕΩΡΓΙΟΥ_x000d__x000d_
-ΧΑΤΖΗΔΑΚΗ 12_x000d__x000d_
+          <t>ΓΕΩΡΓΙΟΥ_x000D_
+ΧΑΤΖΗΔΑΚΗ 12_x000D_
 ΑΘΗΝΩΝ</t>
         </is>
       </c>
